--- a/output/part1/grs_size_bm2.xlsx
+++ b/output/part1/grs_size_bm2.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.918501929485323</v>
+        <v>11.57859689929607</v>
       </c>
       <c r="C2" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09013367541440681</v>
+        <v>0.006584762722779137</v>
       </c>
       <c r="E2" t="n">
-        <v>-19.08288673007407</v>
+        <v>1.155687290788629</v>
       </c>
       <c r="F2" t="n">
-        <v>364.1565659528371</v>
+        <v>1.33561311409036</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.981463490179355</v>
+        <v>11.5818716894209</v>
       </c>
       <c r="C3" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09048004686768943</v>
+        <v>0.006592622778624523</v>
       </c>
       <c r="E3" t="n">
-        <v>-19.15621966783716</v>
+        <v>1.157066803920359</v>
       </c>
       <c r="F3" t="n">
-        <v>366.9607519624313</v>
+        <v>1.338803588734474</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.967942878960986</v>
+        <v>11.66686526031629</v>
       </c>
       <c r="C4" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08973589100894473</v>
+        <v>0.006561885581899966</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.99866876472958</v>
+        <v>1.151672139130669</v>
       </c>
       <c r="F4" t="n">
-        <v>360.9494148319112</v>
+        <v>1.32634871604981</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.723729731236089</v>
+        <v>11.31480373257072</v>
       </c>
       <c r="C5" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09695077232723179</v>
+        <v>0.006888146577582315</v>
       </c>
       <c r="E5" t="n">
-        <v>-20.52618622515472</v>
+        <v>1.208933987744554</v>
       </c>
       <c r="F5" t="n">
-        <v>421.3243209497315</v>
+        <v>1.46152138672395</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.99777799275452</v>
+        <v>11.67864002591413</v>
       </c>
       <c r="C6" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09072837657944763</v>
+        <v>0.006567999196042228</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.20879544197936</v>
+        <v>1.152745135449968</v>
       </c>
       <c r="F6" t="n">
-        <v>368.9778223318069</v>
+        <v>1.328821347303564</v>
       </c>
     </row>
   </sheetData>
